--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -12,12 +12,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Airport Business Deal</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">ff, hoping that today would be a pivotal day for his new business, had only been waiting inside the doors of the airport for a few minutes when he saw William and eagerly waved him over. </t>
+    </r>
+  </si>
+  <si>
+    <t>Jeff checked his watch, pleased to see that the two of them had two hours to discuss business before their flights left Boston.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The two had met the night before in line for the bathroom at a local bar. </t>
+  </si>
+  <si>
+    <t>Jeff had delivered some surprisingly-detailed complaints to William about the wine selection, and they quickly learned that Jeff was a representative for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk business then and there. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They headed to security together, pleased to find that the line was not so long, and they chatted a little as they were waiting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“It’s crazy that we met last night,” William said, “I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “I know, what are the chances right?,” Jeff said.</t>
+  </si>
+  <si>
+    <t>“I know this is fast, but I'd like to get right down to specifics," said William. "I'd like to order a couple of sample shipments from you and present them to our corporate buyers.</t>
+  </si>
+  <si>
+    <t>Typically we expect to get these kinds of samples at a deep discount, at least half off the label price.</t>
+  </si>
+  <si>
+    <t>This is nothing, okay, compared to what you will be making if one of these buyers gets up a contract.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When it was their turn to go through the metal detector, they took off their shoes and pulled out their laptops.</t>
+  </si>
+  <si>
+    <t>Jeff mulled over the offer, nodding noncommittally to William's pitch as they proceeded through the metal detector and retrieved their belongings</t>
+  </si>
+  <si>
+    <t>They began to walk through the concourse, and William handed some printed spreadsheets to Jeff as they navigated toward their gates at the end of the terminal.</t>
+  </si>
+  <si>
+    <t>Jeff weaved through the crowds of travelers as he squinted William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
+  </si>
+  <si>
+    <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at this price.”</t>
+  </si>
+  <si>
+    <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out a deal before their flights left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the end of their long walk, they got to Jeff’s gate first, which had begun boarding passengers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In these last minutes, William and Jeff agreed on a compromise rate on the sample shipment, and finalized the deal with a handshake. </t>
+  </si>
+  <si>
+    <t>“Well, what a tremendous pleasure to do business with you and to have all this work out,” William said.</t>
+  </si>
+  <si>
+    <t>Jeff nodded enthusiastically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Likewise, this has been great.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I'll let you get to your gate.</t>
+  </si>
+  <si>
+    <t>Once we’re both back on the ground, we can get all the shipments in the books.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They parted with a wave as Jeff scanned his boarding pass at the gate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He walked onto the plane, and sat down in his aisle seat in the business class section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He typed out a quick email on his phone letting the rest of his team know the good news, which could be the big break they had been looking for. </t>
+  </si>
+  <si>
+    <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
   </si>
 </sst>
 </file>
@@ -27,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -43,6 +156,16 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,7 +307,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,26 +320,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,6 +374,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff222222"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1300,7 +1436,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1308,213 +1444,491 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.2266" style="1" customWidth="1"/>
+    <col min="3" max="8" width="43.6484" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>32</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="140.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="104.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" ht="68.05" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" ht="176.05" customHeight="1">
+      <c r="A5" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="104.05" customHeight="1">
+      <c r="A6" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="92.05" customHeight="1">
+      <c r="A7" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="140.05" customHeight="1">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" ht="128.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" ht="80.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" ht="80.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" ht="80.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" ht="116.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" ht="128.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" ht="116.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" ht="128.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" ht="116.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" ht="116.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" ht="80.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" ht="104.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" ht="92.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" ht="68.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" ht="68.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" ht="68.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" ht="116.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" ht="68.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -49,7 +49,7 @@
     </r>
   </si>
   <si>
-    <t>Jeff checked his watch, pleased to see that the two of them had two hours to discuss business before their flights left Boston.</t>
+    <t>Jeff, checking his watch, was pleased to see that the two of them had two hours to discuss business before their flights left Boston.</t>
   </si>
   <si>
     <t xml:space="preserve">The two had met the night before in line for the bathroom at a local bar. </t>
@@ -67,28 +67,28 @@
     <t xml:space="preserve">“It’s crazy that we met last night,” William said, “I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
   </si>
   <si>
-    <t xml:space="preserve"> “I know, what are the chances right?,” Jeff said.</t>
+    <t xml:space="preserve"> “I know, what are the chances right?” Jeff said.</t>
   </si>
   <si>
     <t>“I know this is fast, but I'd like to get right down to specifics," said William. "I'd like to order a couple of sample shipments from you and present them to our corporate buyers.</t>
   </si>
   <si>
-    <t>Typically we expect to get these kinds of samples at a deep discount, at least half off the label price.</t>
-  </si>
-  <si>
-    <t>This is nothing, okay, compared to what you will be making if one of these buyers gets up a contract.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> When it was their turn to go through the metal detector, they took off their shoes and pulled out their laptops.</t>
-  </si>
-  <si>
-    <t>Jeff mulled over the offer, nodding noncommittally to William's pitch as they proceeded through the metal detector and retrieved their belongings</t>
+    <t>Typically we expect to get these kinds of samples at a deep discount, at least half-off the label price.</t>
+  </si>
+  <si>
+    <t>This is nothing, okay, compared to what you will be making if one of these buyers makes a contract.”</t>
+  </si>
+  <si>
+    <t>When it was their turn to go through the metal detector, they took off their shoes and pulled out their laptops.</t>
+  </si>
+  <si>
+    <t>Jeff mulled over the offer, nodding noncommittally to William's pitch as they proceeded through the metal detector and retrieved their belongings.</t>
   </si>
   <si>
     <t>They began to walk through the concourse, and William handed some printed spreadsheets to Jeff as they navigated toward their gates at the end of the terminal.</t>
   </si>
   <si>
-    <t>Jeff weaved through the crowds of travelers as he squinted William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
+    <t>Jeff, weaving through the crowds of travelers, squinted  at William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
   </si>
   <si>
     <t xml:space="preserve">Finally Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve"> At the end of their long walk, they got to Jeff’s gate first, which had begun boarding passengers.</t>
   </si>
   <si>
-    <t xml:space="preserve"> In these last minutes, William and Jeff agreed on a compromise rate on the sample shipment, and finalized the deal with a handshake. </t>
+    <t xml:space="preserve"> In these last minutes, William and Jeff agreed on a compromise rate on the sample shipment and finalized the deal with a handshake. </t>
   </si>
   <si>
     <t>“Well, what a tremendous pleasure to do business with you and to have all this work out,” William said.</t>
@@ -124,10 +124,10 @@
     <t xml:space="preserve">They parted with a wave as Jeff scanned his boarding pass at the gate. </t>
   </si>
   <si>
-    <t xml:space="preserve"> He walked onto the plane, and sat down in his aisle seat in the business class section.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He typed out a quick email on his phone letting the rest of his team know the good news, which could be the big break they had been looking for. </t>
+    <t>He walked onto the plane and sat down in his aisle seat in the business class section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He typed out a quick email on his phone letting the rest of his team know the good news, the big break they had been looking for. </t>
   </si>
   <si>
     <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
@@ -1690,7 +1690,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" ht="116.05" customHeight="1">
+    <row r="16" ht="128.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" ht="116.05" customHeight="1">
+    <row r="29" ht="104.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>storyText</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Jeff had delivered some surprisingly-detailed complaints to William about the wine selection, and they quickly learned that Jeff was a representative for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
   </si>
   <si>
-    <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk business then and there. </t>
+    <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk about potentially doing business. </t>
   </si>
   <si>
     <t xml:space="preserve">They headed to security together, pleased to find that the line was not so long, and they chatted a little as they were waiting. </t>
@@ -67,16 +67,25 @@
     <t xml:space="preserve">“It’s crazy that we met last night,” William said, “I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
   </si>
   <si>
-    <t xml:space="preserve"> “I know, what are the chances right?” Jeff said.</t>
-  </si>
-  <si>
-    <t>“I know this is fast, but I'd like to get right down to specifics," said William. "I'd like to order a couple of sample shipments from you and present them to our corporate buyers.</t>
+    <t>“I know, what are the chances, right?” Jeff said.</t>
+  </si>
+  <si>
+    <t>William laughed and said, “I’m glad our shared complaining can come in handy.</t>
+  </si>
+  <si>
+    <t>I know this is fast, but I'd like to get right down to specifics.</t>
+  </si>
+  <si>
+    <t>I'd like to order a couple of sample shipments from you and present them to our corporate buyers.</t>
   </si>
   <si>
     <t>Typically we expect to get these kinds of samples at a deep discount, at least half-off the label price.</t>
   </si>
   <si>
-    <t>This is nothing, okay, compared to what you will be making if one of these buyers makes a contract.”</t>
+    <t>This is nothing, okay, compared to what you will be making if one of these buyers makes a contract.</t>
+  </si>
+  <si>
+    <t>So I propose that you send us $600 worth of wine shipments for a price of $300.”</t>
   </si>
   <si>
     <t>When it was their turn to go through the metal detector, they took off their shoes and pulled out their laptops.</t>
@@ -88,7 +97,7 @@
     <t>They began to walk through the concourse, and William handed some printed spreadsheets to Jeff as they navigated toward their gates at the end of the terminal.</t>
   </si>
   <si>
-    <t>Jeff, weaving through the crowds of travelers, squinted  at William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
+    <t>Jeff, weaving through the crowds of travelers, squinted at William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
   </si>
   <si>
     <t xml:space="preserve">Finally Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
@@ -97,25 +106,22 @@
     <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at this price.”</t>
   </si>
   <si>
-    <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out a deal before their flights left.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At the end of their long walk, they got to Jeff’s gate first, which had begun boarding passengers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In these last minutes, William and Jeff agreed on a compromise rate on the sample shipment and finalized the deal with a handshake. </t>
+    <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out this deal before their flights left.</t>
+  </si>
+  <si>
+    <t>At the end of their long walk, they got to Jeff’s gate first, which had begun boarding passengers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In these last minutes, William and Jeff agreed on a compromise rate on the sample shipment, paying $400 for a $600 shipment, and they finalized the deal with a handshake. </t>
   </si>
   <si>
     <t>“Well, what a tremendous pleasure to do business with you and to have all this work out,” William said.</t>
   </si>
   <si>
-    <t>Jeff nodded enthusiastically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Likewise, this has been great.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'll let you get to your gate.</t>
+    <t xml:space="preserve">Jeff nodded enthusiastically, and responded, “Likewise, this has been great.  </t>
+  </si>
+  <si>
+    <t>I'll let you get to your gate.</t>
   </si>
   <si>
     <t>Once we’re both back on the ground, we can get all the shipments in the books.”</t>
@@ -127,7 +133,7 @@
     <t>He walked onto the plane and sat down in his aisle seat in the business class section.</t>
   </si>
   <si>
-    <t xml:space="preserve">He typed out a quick email on his phone letting the rest of his team know the good news, the big break they had been looking for. </t>
+    <t xml:space="preserve">He typed out a quick email on his phone letting the rest of his team know the good news. </t>
   </si>
   <si>
     <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
@@ -140,11 +146,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -153,6 +159,11 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -307,7 +318,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -320,7 +331,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -332,7 +343,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -344,14 +355,11 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1444,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1446,7 +1454,12 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.2266" style="1" customWidth="1"/>
-    <col min="3" max="8" width="43.6484" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6484" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6484" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6484" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6484" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6484" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6484" style="1" customWidth="1"/>
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1499,7 +1512,7 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" ht="68.05" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="A4" t="s" s="8">
         <v>5</v>
       </c>
       <c r="B4" s="9">
@@ -1515,7 +1528,7 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" ht="176.05" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="A5" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B5" s="9">
@@ -1531,7 +1544,7 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="104.05" customHeight="1">
-      <c r="A6" t="s" s="12">
+      <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B6" s="9">
@@ -1547,7 +1560,7 @@
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="92.05" customHeight="1">
-      <c r="A7" t="s" s="12">
+      <c r="A7" t="s" s="8">
         <v>8</v>
       </c>
       <c r="B7" s="9">
@@ -1563,7 +1576,7 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="140.05" customHeight="1">
-      <c r="A8" t="s" s="12">
+      <c r="A8" t="s" s="8">
         <v>9</v>
       </c>
       <c r="B8" s="9">
@@ -1579,7 +1592,7 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="8">
         <v>10</v>
       </c>
       <c r="B9" s="9">
@@ -1594,7 +1607,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" ht="128.05" customHeight="1">
+    <row r="10" ht="68.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1602,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1610,7 +1623,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" ht="80.05" customHeight="1">
+    <row r="11" ht="56.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
@@ -1658,7 +1671,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" ht="116.05" customHeight="1">
+    <row r="14" ht="80.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
@@ -1674,12 +1687,12 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" ht="128.05" customHeight="1">
+    <row r="15" ht="68.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -1690,12 +1703,12 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" ht="128.05" customHeight="1">
+    <row r="16" ht="80.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1706,15 +1719,15 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" ht="128.05" customHeight="1">
+    <row r="17" ht="116.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1722,7 +1735,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" ht="116.05" customHeight="1">
+    <row r="18" ht="128.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -1738,7 +1751,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" ht="116.05" customHeight="1">
+    <row r="19" ht="128.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1746,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1754,7 +1767,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" ht="80.05" customHeight="1">
+    <row r="20" ht="128.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1770,7 +1783,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" ht="104.05" customHeight="1">
+    <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1778,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1786,7 +1799,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" ht="92.05" customHeight="1">
+    <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1802,7 +1815,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" ht="32.05" customHeight="1">
+    <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1810,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -1818,7 +1831,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" ht="32.05" customHeight="1">
+    <row r="24" ht="128.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1834,7 +1847,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" ht="32.05" customHeight="1">
+    <row r="25" ht="92.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1866,7 +1879,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" ht="68.05" customHeight="1">
+    <row r="27" ht="32.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
@@ -1880,14 +1893,14 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="68.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B28" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10">
         <v>4</v>
@@ -1896,14 +1909,14 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" ht="104.05" customHeight="1">
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B29" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="10">
         <v>4</v>
@@ -1912,7 +1925,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
@@ -1921,14 +1934,46 @@
       <c r="B30" s="9">
         <v>4</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="10">
         <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" ht="80.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" ht="68.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -6,13 +6,33 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>Sheet 1</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
   <si>
     <t>storyText</t>
   </si>
@@ -55,7 +75,10 @@
     <t xml:space="preserve">The two had met the night before in line for the bathroom at a local bar. </t>
   </si>
   <si>
-    <t>Jeff had delivered some surprisingly-detailed complaints to William about the wine selection, and they quickly learned that Jeff was a representative for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
+    <t>Jeff had delivered some surprisingly-detailed complaints to William about the wine selection.</t>
+  </si>
+  <si>
+    <t>They quickly learned about each other that Jeff was a representative for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
   </si>
   <si>
     <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk about potentially doing business. </t>
@@ -137,6 +160,9 @@
   </si>
   <si>
     <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
+  </si>
+  <si>
+    <t>Sheet 2</t>
   </si>
 </sst>
 </file>
@@ -146,15 +172,26 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -165,12 +202,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="16"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -179,7 +211,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,7 +226,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -209,106 +253,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -318,20 +362,35 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -343,7 +402,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -355,10 +414,28 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -378,6 +455,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1441,10 +1521,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'Sheet 1'!R1C1" tooltip="" display="Sheet 1"/>
+    <hyperlink ref="D12" location="'Sheet 2'!R1C1" tooltip="" display="Sheet 2"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1452,528 +1604,539 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2266" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6484" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6484" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6484" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6484" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6484" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.6484" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.2266" style="6" customWidth="1"/>
+    <col min="3" max="8" width="43.6484" style="6" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" ht="140.25" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" ht="104.05" customHeight="1">
+      <c r="A3" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" ht="68.05" customHeight="1">
+      <c r="A4" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" ht="68.05" customHeight="1">
+      <c r="A5" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" ht="116.05" customHeight="1">
+      <c r="A6" t="s" s="17">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="104.05" customHeight="1">
+      <c r="A7" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="92.05" customHeight="1">
+      <c r="A8" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="140.25" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="140.05" customHeight="1">
+      <c r="A9" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" ht="44.05" customHeight="1">
+      <c r="A10" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="68.05" customHeight="1">
+      <c r="A11" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="56.05" customHeight="1">
+      <c r="A12" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="80.05" customHeight="1">
+      <c r="A13" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="80.05" customHeight="1">
+      <c r="A14" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" ht="80.05" customHeight="1">
+      <c r="A15" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" ht="68.05" customHeight="1">
+      <c r="A16" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" ht="80.05" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" ht="116.05" customHeight="1">
+      <c r="A18" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" ht="128.05" customHeight="1">
+      <c r="A19" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="B19" s="14">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" ht="104.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" ht="128.05" customHeight="1">
+      <c r="A20" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" ht="128.05" customHeight="1">
+      <c r="A21" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" ht="116.05" customHeight="1">
+      <c r="A22" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" ht="116.05" customHeight="1">
+      <c r="A23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B23" s="14">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" ht="80.05" customHeight="1">
+      <c r="A24" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" ht="128.05" customHeight="1">
+      <c r="A25" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" ht="68.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" ht="176.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" ht="104.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" ht="92.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" ht="140.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" ht="68.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" ht="56.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" ht="80.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" ht="80.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" ht="80.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" ht="68.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" ht="80.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" ht="116.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" ht="128.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" ht="92.05" customHeight="1">
+      <c r="A26" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B26" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" ht="128.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="C26" s="15">
+        <v>4</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" ht="68.05" customHeight="1">
+      <c r="A27" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B27" s="14">
         <v>3</v>
       </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" ht="128.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="C27" s="15">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" ht="32.05" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C28" s="15">
+        <v>4</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" ht="68.05" customHeight="1">
+      <c r="A29" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="B29" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" ht="116.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="C29" s="15">
+        <v>4</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" ht="68.05" customHeight="1">
+      <c r="A30" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B30" s="14">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" ht="116.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" ht="80.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" ht="128.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="C30" s="15">
         <v>4</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" ht="92.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" ht="68.05" customHeight="1">
+      <c r="A31" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B31" s="14">
         <v>4</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" ht="68.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="C31" s="15">
         <v>4</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" ht="80.05" customHeight="1">
+      <c r="A32" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B32" s="14">
         <v>4</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" ht="68.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="C32" s="15">
         <v>4</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9">
-        <v>3</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" ht="68.05" customHeight="1">
+      <c r="A33" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="B33" s="14">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" ht="68.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="C33" s="19">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
-        <v>4</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" ht="80.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="10">
-        <v>4</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" ht="68.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="13">
-        <v>4</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1982,4 +2145,100 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="20" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -6,33 +6,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 1" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
-  </si>
-  <si>
-    <t>Numbers Sheet Name</t>
-  </si>
-  <si>
-    <t>Numbers Table Name</t>
-  </si>
-  <si>
-    <t>Excel Worksheet Name</t>
-  </si>
-  <si>
-    <t>Sheet 1</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>storyText</t>
   </si>
@@ -161,9 +141,6 @@
   <si>
     <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
   </si>
-  <si>
-    <t>Sheet 2</t>
-  </si>
 </sst>
 </file>
 
@@ -172,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -184,17 +161,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -202,7 +168,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="16"/>
+      <color indexed="13"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -211,7 +177,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,19 +192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -253,106 +207,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -362,35 +316,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -402,7 +341,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -414,29 +353,14 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,9 +379,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1521,78 +1442,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'Sheet 1'!R1C1" tooltip="" display="Sheet 1"/>
-    <hyperlink ref="D12" location="'Sheet 2'!R1C1" tooltip="" display="Sheet 2"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1604,539 +1453,539 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.2266" style="6" customWidth="1"/>
-    <col min="3" max="8" width="43.6484" style="6" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.2266" style="1" customWidth="1"/>
+    <col min="3" max="8" width="43.6484" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="7">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="140.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="104.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" ht="68.05" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" ht="68.05" customHeight="1">
+      <c r="A5" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="116.05" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="104.05" customHeight="1">
+      <c r="A7" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" ht="140.25" customHeight="1">
-      <c r="A2" t="s" s="9">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="92.05" customHeight="1">
+      <c r="A8" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" ht="140.05" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" ht="104.05" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" ht="44.05" customHeight="1">
+      <c r="A10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" ht="68.05" customHeight="1">
+      <c r="A11" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" ht="68.05" customHeight="1">
-      <c r="A4" t="s" s="17">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" ht="68.05" customHeight="1">
-      <c r="A5" t="s" s="17">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" ht="116.05" customHeight="1">
-      <c r="A6" t="s" s="17">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" ht="56.05" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" ht="104.05" customHeight="1">
-      <c r="A7" t="s" s="17">
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" ht="80.05" customHeight="1">
+      <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" ht="92.05" customHeight="1">
-      <c r="A8" t="s" s="17">
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" ht="80.05" customHeight="1">
+      <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" ht="140.05" customHeight="1">
-      <c r="A9" t="s" s="17">
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" ht="80.05" customHeight="1">
+      <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" t="s" s="17">
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" ht="68.05" customHeight="1">
+      <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" ht="68.05" customHeight="1">
-      <c r="A11" t="s" s="17">
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" ht="80.05" customHeight="1">
+      <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
-        <v>2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" ht="56.05" customHeight="1">
-      <c r="A12" t="s" s="13">
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" ht="116.05" customHeight="1">
+      <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" ht="80.05" customHeight="1">
-      <c r="A13" t="s" s="13">
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" ht="128.05" customHeight="1">
+      <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B13" s="14">
-        <v>2</v>
-      </c>
-      <c r="C13" s="15">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" ht="80.05" customHeight="1">
-      <c r="A14" t="s" s="13">
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" ht="128.05" customHeight="1">
+      <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B14" s="14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="15">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" ht="80.05" customHeight="1">
-      <c r="A15" t="s" s="13">
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" ht="128.05" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B15" s="14">
-        <v>2</v>
-      </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" ht="68.05" customHeight="1">
-      <c r="A16" t="s" s="13">
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" ht="116.05" customHeight="1">
+      <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B16" s="14">
-        <v>2</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" ht="80.05" customHeight="1">
-      <c r="A17" t="s" s="13">
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" ht="116.05" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="B17" s="14">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" ht="116.05" customHeight="1">
-      <c r="A18" t="s" s="13">
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" ht="80.05" customHeight="1">
+      <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" ht="128.05" customHeight="1">
-      <c r="A19" t="s" s="13">
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" ht="128.05" customHeight="1">
+      <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B25" s="9">
         <v>3</v>
       </c>
-      <c r="C19" s="15">
-        <v>2</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" ht="128.05" customHeight="1">
-      <c r="A20" t="s" s="13">
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" ht="92.05" customHeight="1">
+      <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B26" s="9">
         <v>3</v>
       </c>
-      <c r="C20" s="15">
-        <v>2</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" ht="128.05" customHeight="1">
-      <c r="A21" t="s" s="13">
+      <c r="C26" s="10">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" ht="68.05" customHeight="1">
+      <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B27" s="9">
         <v>3</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C27" s="10">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" ht="32.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" ht="116.05" customHeight="1">
-      <c r="A22" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="B22" s="14">
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" ht="68.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" ht="68.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" ht="116.05" customHeight="1">
-      <c r="A23" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="B23" s="14">
-        <v>3</v>
-      </c>
-      <c r="C23" s="15">
-        <v>3</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" ht="80.05" customHeight="1">
-      <c r="A24" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="B24" s="14">
-        <v>3</v>
-      </c>
-      <c r="C24" s="15">
-        <v>3</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" ht="128.05" customHeight="1">
-      <c r="A25" t="s" s="13">
+      <c r="C30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" ht="68.05" customHeight="1">
+      <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="B25" s="14">
-        <v>3</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" ht="92.05" customHeight="1">
-      <c r="A26" t="s" s="13">
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="80.05" customHeight="1">
+      <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B26" s="14">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B32" s="9">
         <v>4</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" ht="68.05" customHeight="1">
-      <c r="A27" t="s" s="13">
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" ht="68.05" customHeight="1">
+      <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="B27" s="14">
-        <v>3</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="B28" s="14">
-        <v>3</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="C33" s="14">
         <v>4</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="B29" s="14">
-        <v>3</v>
-      </c>
-      <c r="C29" s="15">
-        <v>4</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" ht="68.05" customHeight="1">
-      <c r="A30" t="s" s="13">
-        <v>37</v>
-      </c>
-      <c r="B30" s="14">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15">
-        <v>4</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" ht="68.05" customHeight="1">
-      <c r="A31" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="B31" s="14">
-        <v>4</v>
-      </c>
-      <c r="C31" s="15">
-        <v>4</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" ht="80.05" customHeight="1">
-      <c r="A32" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="B32" s="14">
-        <v>4</v>
-      </c>
-      <c r="C32" s="15">
-        <v>4</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" ht="68.05" customHeight="1">
-      <c r="A33" t="s" s="13">
-        <v>40</v>
-      </c>
-      <c r="B33" s="14">
-        <v>4</v>
-      </c>
-      <c r="C33" s="19">
-        <v>4</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2145,100 +1994,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -149,11 +152,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -162,6 +165,11 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -316,7 +324,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -329,7 +337,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -341,7 +349,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -353,14 +361,11 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1455,7 +1460,12 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.2266" style="1" customWidth="1"/>
-    <col min="3" max="8" width="43.6484" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6484" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6484" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6484" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6484" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6484" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6484" style="1" customWidth="1"/>
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1469,7 +1479,9 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1477,7 +1489,7 @@
     </row>
     <row r="2" ht="140.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1485,7 +1497,9 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>32</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1493,7 +1507,7 @@
     </row>
     <row r="3" ht="104.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1508,8 +1522,8 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" ht="68.05" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>5</v>
+      <c r="A4" t="s" s="8">
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1524,8 +1538,8 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" ht="68.05" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>6</v>
+      <c r="A5" t="s" s="8">
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1540,8 +1554,8 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="116.05" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>7</v>
+      <c r="A6" t="s" s="8">
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1556,8 +1570,8 @@
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="104.05" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>8</v>
+      <c r="A7" t="s" s="8">
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1572,8 +1586,8 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="92.05" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>9</v>
+      <c r="A8" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
@@ -1588,8 +1602,8 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="140.05" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>10</v>
+      <c r="A9" t="s" s="8">
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -1604,8 +1618,8 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>11</v>
+      <c r="A10" t="s" s="8">
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -1620,8 +1634,8 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" ht="68.05" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>12</v>
+      <c r="A11" t="s" s="8">
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -1637,7 +1651,7 @@
     </row>
     <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1653,7 +1667,7 @@
     </row>
     <row r="13" ht="80.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1669,7 +1683,7 @@
     </row>
     <row r="14" ht="80.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1685,7 +1699,7 @@
     </row>
     <row r="15" ht="80.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1701,7 +1715,7 @@
     </row>
     <row r="16" ht="68.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1717,7 +1731,7 @@
     </row>
     <row r="17" ht="80.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -1733,7 +1747,7 @@
     </row>
     <row r="18" ht="116.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -1749,7 +1763,7 @@
     </row>
     <row r="19" ht="128.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>3</v>
@@ -1765,7 +1779,7 @@
     </row>
     <row r="20" ht="128.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>3</v>
@@ -1781,7 +1795,7 @@
     </row>
     <row r="21" ht="128.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
@@ -1797,7 +1811,7 @@
     </row>
     <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
@@ -1813,7 +1827,7 @@
     </row>
     <row r="23" ht="116.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -1829,7 +1843,7 @@
     </row>
     <row r="24" ht="80.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>3</v>
@@ -1845,7 +1859,7 @@
     </row>
     <row r="25" ht="128.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
@@ -1861,7 +1875,7 @@
     </row>
     <row r="26" ht="92.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>3</v>
@@ -1877,7 +1891,7 @@
     </row>
     <row r="27" ht="68.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>3</v>
@@ -1893,7 +1907,7 @@
     </row>
     <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>3</v>
@@ -1909,7 +1923,7 @@
     </row>
     <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>3</v>
@@ -1925,7 +1939,7 @@
     </row>
     <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>3</v>
@@ -1937,11 +1951,11 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" ht="68.05" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9">
         <v>4</v>
@@ -1953,11 +1967,11 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" ht="80.05" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9">
         <v>4</v>
@@ -1973,12 +1987,12 @@
     </row>
     <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>4</v>
       </c>
       <c r="D33" s="11"/>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>storyText</t>
   </si>
@@ -48,7 +48,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">ff, hoping that today would be a pivotal day for his new business, had only been waiting inside the doors of the airport for a few minutes when he saw William and eagerly waved him over. </t>
+      <t xml:space="preserve">ff, hoping that today would be a pivotal day for his company, had only been waiting inside the doors of the airport for a few minutes when he saw William and eagerly waved him over. </t>
     </r>
   </si>
   <si>
@@ -61,13 +61,13 @@
     <t>Jeff had delivered some surprisingly-detailed complaints to William about the wine selection.</t>
   </si>
   <si>
-    <t>They quickly learned about each other that Jeff was a representative for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
+    <t>They quickly learned that they were both in the wine industry: Jeff was a sales associate for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
   </si>
   <si>
     <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk about potentially doing business. </t>
   </si>
   <si>
-    <t xml:space="preserve">They headed to security together, pleased to find that the line was not so long, and they chatted a little as they were waiting. </t>
+    <t>They headed to security together, and waited in the line.</t>
   </si>
   <si>
     <t xml:space="preserve">“It’s crazy that we met last night,” William said, “I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
@@ -79,39 +79,45 @@
     <t>William laughed and said, “I’m glad our shared complaining can come in handy.</t>
   </si>
   <si>
-    <t>I know this is fast, but I'd like to get right down to specifics.</t>
-  </si>
-  <si>
-    <t>I'd like to order a couple of sample shipments from you and present them to our corporate buyers.</t>
-  </si>
-  <si>
-    <t>Typically we expect to get these kinds of samples at a deep discount, at least half-off the label price.</t>
+    <t>Ok, so, I know this is fast, but I'd like to get right down to business since I don’t want to worry about time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd really like to order a couple of sample shipments from you and present them to our corporate buyers: I think they’d really love to have some East Coast variety. </t>
+  </si>
+  <si>
+    <t>Now, typically we expect to get these kinds of samples at a deep discount, at least half-off the label price.</t>
   </si>
   <si>
     <t>This is nothing, okay, compared to what you will be making if one of these buyers makes a contract.</t>
   </si>
   <si>
-    <t>So I propose that you send us $600 worth of wine shipments for a price of $300.”</t>
-  </si>
-  <si>
-    <t>When it was their turn to go through the metal detector, they took off their shoes and pulled out their laptops.</t>
+    <t>So I propose that you send us 5 barrels of your select wines for $800.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before going through the metal detector, they slipped off their loafers, undid their belts and watches and pulled out their laptops from their briefcase bags. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They placed everything in the bins. </t>
   </si>
   <si>
     <t>Jeff mulled over the offer, nodding noncommittally to William's pitch as they proceeded through the metal detector and retrieved their belongings.</t>
   </si>
   <si>
-    <t>They began to walk through the concourse, and William handed some printed spreadsheets to Jeff as they navigated toward their gates at the end of the terminal.</t>
+    <t>Having recovered from the security check, they began to walk through the concourse toward Jeff’s gate, B8, and William handed some printed spreadsheets to Jeff as they walked.</t>
   </si>
   <si>
     <t>Jeff, weaving through the crowds of travelers, squinted at William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
   </si>
   <si>
-    <t xml:space="preserve">Finally Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
+    <t xml:space="preserve">Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
   </si>
   <si>
     <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at this price.”</t>
   </si>
   <si>
+    <t>William decided to tell Jeff that they had med the same offer to their competitor, East Vines, who had refused and that they would make a better offer to Jeff and his company.</t>
+  </si>
+  <si>
     <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out this deal before their flights left.</t>
   </si>
   <si>
@@ -136,7 +142,7 @@
     <t xml:space="preserve">They parted with a wave as Jeff scanned his boarding pass at the gate. </t>
   </si>
   <si>
-    <t>He walked onto the plane and sat down in his aisle seat in the business class section.</t>
+    <t>He walked onto the plane and sat down in seat 4A in the business class section.</t>
   </si>
   <si>
     <t xml:space="preserve">He typed out a quick email on his phone letting the rest of his team know the good news. </t>
@@ -152,11 +158,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -165,11 +171,6 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -324,7 +325,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -337,7 +338,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -349,7 +350,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -361,11 +362,14 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,7 +1454,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1460,12 +1464,7 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.2266" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6484" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6484" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6484" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6484" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6484" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.6484" style="1" customWidth="1"/>
+    <col min="3" max="8" width="43.6484" style="1" customWidth="1"/>
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1522,7 +1521,7 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" ht="68.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
       <c r="B4" s="9">
@@ -1538,7 +1537,7 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" ht="68.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
       <c r="B5" s="9">
@@ -1553,8 +1552,8 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" ht="116.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" ht="140.05" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>8</v>
       </c>
       <c r="B6" s="9">
@@ -1570,7 +1569,7 @@
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="104.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
       <c r="B7" s="9">
@@ -1585,8 +1584,8 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" ht="92.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" ht="56.05" customHeight="1">
+      <c r="A8" t="s" s="12">
         <v>10</v>
       </c>
       <c r="B8" s="9">
@@ -1602,7 +1601,7 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="140.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="A9" t="s" s="12">
         <v>11</v>
       </c>
       <c r="B9" s="9">
@@ -1618,7 +1617,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
       <c r="B10" s="9">
@@ -1634,7 +1633,7 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" ht="68.05" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
       <c r="B11" s="9">
@@ -1649,7 +1648,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" ht="56.05" customHeight="1">
+    <row r="12" ht="80.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1665,7 +1664,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" ht="80.05" customHeight="1">
+    <row r="13" ht="116.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1729,7 +1728,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" ht="80.05" customHeight="1">
+    <row r="17" ht="116.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1745,7 +1744,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" ht="116.05" customHeight="1">
+    <row r="18" ht="44.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1761,12 +1760,12 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" ht="128.05" customHeight="1">
+    <row r="19" ht="116.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -1801,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1809,7 +1808,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
+    <row r="22" ht="128.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1841,7 +1840,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" ht="80.05" customHeight="1">
+    <row r="24" ht="128.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1857,7 +1856,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" ht="128.05" customHeight="1">
+    <row r="25" ht="116.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1873,7 +1872,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" ht="92.05" customHeight="1">
+    <row r="26" ht="80.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1889,7 +1888,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" ht="68.05" customHeight="1">
+    <row r="27" ht="128.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1905,7 +1904,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" ht="32.05" customHeight="1">
+    <row r="28" ht="92.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
@@ -1937,7 +1936,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
+    <row r="30" ht="32.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1951,14 +1950,14 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" ht="68.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
       <c r="B31" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="10">
         <v>4</v>
@@ -1967,14 +1966,14 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" ht="80.05" customHeight="1">
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" ht="68.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
       <c r="B32" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -1983,7 +1982,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
@@ -1992,14 +1991,46 @@
       <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="10">
         <v>4</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" ht="80.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" ht="68.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="14">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -52,10 +52,10 @@
     </r>
   </si>
   <si>
-    <t>Jeff, checking his watch, was pleased to see that the two of them had two hours to discuss business before their flights left Boston.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The two had met the night before in line for the bathroom at a local bar. </t>
+    <t>William checked his watch and was pleased to see that the two of them had two hours to discuss business before their flights left Boston.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff and William had met the night before in line for the bathroom at a local bar. </t>
   </si>
   <si>
     <t>Jeff had delivered some surprisingly-detailed complaints to William about the wine selection.</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk about potentially doing business. </t>
   </si>
   <si>
-    <t>They headed to security together, and waited in the line.</t>
+    <t>They waited in line at security together.</t>
   </si>
   <si>
     <t xml:space="preserve">“It’s crazy that we met last night,” William said, “I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
@@ -76,10 +76,10 @@
     <t>“I know, what are the chances, right?” Jeff said.</t>
   </si>
   <si>
-    <t>William laughed and said, “I’m glad our shared complaining can come in handy.</t>
-  </si>
-  <si>
-    <t>Ok, so, I know this is fast, but I'd like to get right down to business since I don’t want to worry about time.</t>
+    <t>William laughed and said, “I’m glad our complaining can come in handy.”</t>
+  </si>
+  <si>
+    <t>William became more serious, shifting gears, and said,  “Ok, so, I know this is fast, but I'd like to get right down to business since time is a limiting factor.</t>
   </si>
   <si>
     <t xml:space="preserve">I'd really like to order a couple of sample shipments from you and present them to our corporate buyers: I think they’d really love to have some East Coast variety. </t>
@@ -94,22 +94,22 @@
     <t>So I propose that you send us 5 barrels of your select wines for $800.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Before going through the metal detector, they slipped off their loafers, undid their belts and watches and pulled out their laptops from their briefcase bags. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They placed everything in the bins. </t>
-  </si>
-  <si>
-    <t>Jeff mulled over the offer, nodding noncommittally to William's pitch as they proceeded through the metal detector and retrieved their belongings.</t>
-  </si>
-  <si>
-    <t>Having recovered from the security check, they began to walk through the concourse toward Jeff’s gate, B8, and William handed some printed spreadsheets to Jeff as they walked.</t>
-  </si>
-  <si>
-    <t>Jeff, weaving through the crowds of travelers, squinted at William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
+    <t xml:space="preserve">Before going through the metal detector, there was a pause in the security line to roll out the empty bin cart and roll in a filled one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They placed everything in their bins. </t>
+  </si>
+  <si>
+    <t>Jeff mulled over the offer, nodding noncommittally to William's pitch as they proceeded through the metal detector.</t>
+  </si>
+  <si>
+    <t>Having recovered from the security check, they began to walk through the concourse toward Jeff’s gate, B8, and William handed some printed spreadsheets to Jeff.</t>
+  </si>
+  <si>
+    <t>Jeff, weaving through the crowd of travelers, squinted at William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After thinking for a couple minutes and walking past a number of coffee shops that William was eyeing, Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
   </si>
   <si>
     <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at this price.”</t>
@@ -121,10 +121,10 @@
     <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out this deal before their flights left.</t>
   </si>
   <si>
-    <t>At the end of their long walk, they got to Jeff’s gate first, which had begun boarding passengers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In these last minutes, William and Jeff agreed on a compromise rate on the sample shipment, paying $400 for a $600 shipment, and they finalized the deal with a handshake. </t>
+    <t>Nearing the end of their long walk, they saw Jeff’s gate first, which had begun boarding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William and Jeff came to an agreement on a compromise rate on the sample shipment, paying $400 for a $600 shipment, and they finalized the deal with a handshake. </t>
   </si>
   <si>
     <t>“Well, what a tremendous pleasure to do business with you and to have all this work out,” William said.</t>
@@ -139,13 +139,10 @@
     <t>Once we’re both back on the ground, we can get all the shipments in the books.”</t>
   </si>
   <si>
-    <t xml:space="preserve">They parted with a wave as Jeff scanned his boarding pass at the gate. </t>
-  </si>
-  <si>
-    <t>He walked onto the plane and sat down in seat 4A in the business class section.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He typed out a quick email on his phone letting the rest of his team know the good news. </t>
+    <t>Jeff got to his gate, scanned his boarding pass, and walked onto the plane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He sat down in seat 4A in the business class section and  typed out a quick email on his phone letting the rest of his team know the good news. </t>
   </si>
   <si>
     <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
@@ -1454,7 +1451,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1584,7 +1581,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" ht="56.05" customHeight="1">
+    <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="12">
         <v>10</v>
       </c>
@@ -1648,7 +1645,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" ht="80.05" customHeight="1">
+    <row r="12" ht="116.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1728,7 +1725,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" ht="116.05" customHeight="1">
+    <row r="17" ht="104.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1760,7 +1757,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" ht="116.05" customHeight="1">
+    <row r="19" ht="92.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1808,7 +1805,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" ht="128.05" customHeight="1">
+    <row r="22" ht="188.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1872,7 +1869,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" ht="80.05" customHeight="1">
+    <row r="26" ht="68.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -1984,7 +1981,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" ht="68.05" customHeight="1">
+    <row r="33" ht="104.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1998,16 +1995,16 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" ht="80.05" customHeight="1">
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" ht="68.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
       <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="14">
         <v>4</v>
       </c>
       <c r="D34" s="11"/>
@@ -2015,22 +2012,6 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-    </row>
-    <row r="35" ht="68.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="14">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -48,7 +48,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">ff, hoping that today would be a pivotal day for his company, had only been waiting inside the doors of the airport for a few minutes when he saw William and eagerly waved him over. </t>
+      <t xml:space="preserve">ff, hoping that today would be a pivotal day for his company, had only been waiting inside the entrance of the airport for a few minutes when he saw William and eagerly waved him over. </t>
     </r>
   </si>
   <si>
@@ -64,16 +64,19 @@
     <t>They quickly learned that they were both in the wine industry: Jeff was a sales associate for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
   </si>
   <si>
-    <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk about potentially doing business. </t>
-  </si>
-  <si>
-    <t>They waited in line at security together.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“It’s crazy that we met last night,” William said, “I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
-  </si>
-  <si>
-    <t>“I know, what are the chances, right?” Jeff said.</t>
+    <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk about doing business together. </t>
+  </si>
+  <si>
+    <t>They waited in line at security.</t>
+  </si>
+  <si>
+    <t>“It’s crazy that we met last night,” William said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
+  </si>
+  <si>
+    <t>“I know, what are the chances, right?” Jeff replied.</t>
   </si>
   <si>
     <t>William laughed and said, “I’m glad our complaining can come in handy.”</t>
@@ -82,13 +85,13 @@
     <t>William became more serious, shifting gears, and said,  “Ok, so, I know this is fast, but I'd like to get right down to business since time is a limiting factor.</t>
   </si>
   <si>
-    <t xml:space="preserve">I'd really like to order a couple of sample shipments from you and present them to our corporate buyers: I think they’d really love to have some East Coast variety. </t>
+    <t xml:space="preserve">I'd really like to order a couple of sample shipments from you and present them to our clients: I think they’d really love to have some East Coast variety. </t>
   </si>
   <si>
     <t>Now, typically we expect to get these kinds of samples at a deep discount, at least half-off the label price.</t>
   </si>
   <si>
-    <t>This is nothing, okay, compared to what you will be making if one of these buyers makes a contract.</t>
+    <t>This small loss is well worth the profit you’d be making if even a single client makes a contract.</t>
   </si>
   <si>
     <t>So I propose that you send us 5 barrels of your select wines for $800.”</t>
@@ -106,7 +109,7 @@
     <t>Having recovered from the security check, they began to walk through the concourse toward Jeff’s gate, B8, and William handed some printed spreadsheets to Jeff.</t>
   </si>
   <si>
-    <t>Jeff, weaving through the crowd of travelers, squinted at William's rosy projections of the number of bottles he could be able to purchase in the future.</t>
+    <t>Jeff, weaving through the crowd of travelers, squinted at William's rosy projections of the number of bottles he would purchase in the future.</t>
   </si>
   <si>
     <t xml:space="preserve">After thinking for a couple minutes and walking past a number of coffee shops that William was eyeing, Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
@@ -115,13 +118,10 @@
     <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at this price.”</t>
   </si>
   <si>
-    <t>William decided to tell Jeff that they had med the same offer to their competitor, East Vines, who had refused and that they would make a better offer to Jeff and his company.</t>
-  </si>
-  <si>
-    <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out this deal before their flights left.</t>
-  </si>
-  <si>
-    <t>Nearing the end of their long walk, they saw Jeff’s gate first, which had begun boarding.</t>
+    <t>William decided to tell Jeff that they had made the same offer to their competitor, East Vines, who had refused and that they would make a better offer to Jeff and his company.</t>
+  </si>
+  <si>
+    <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out the numbers.</t>
   </si>
   <si>
     <t xml:space="preserve">William and Jeff came to an agreement on a compromise rate on the sample shipment, paying $400 for a $600 shipment, and they finalized the deal with a handshake. </t>
@@ -139,7 +139,7 @@
     <t>Once we’re both back on the ground, we can get all the shipments in the books.”</t>
   </si>
   <si>
-    <t>Jeff got to his gate, scanned his boarding pass, and walked onto the plane.</t>
+    <t>Jeff jogged to his gate, scanned his boarding pass, and walked onto the plane.</t>
   </si>
   <si>
     <t xml:space="preserve">He sat down in seat 4A in the business class section and  typed out a quick email on his phone letting the rest of his team know the good news. </t>
@@ -1597,7 +1597,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" ht="140.05" customHeight="1">
+    <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="12">
         <v>11</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" ht="44.05" customHeight="1">
+    <row r="10" ht="104.05" customHeight="1">
       <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" ht="68.05" customHeight="1">
+    <row r="11" ht="44.05" customHeight="1">
       <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
@@ -1645,15 +1645,15 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" ht="116.05" customHeight="1">
-      <c r="A12" t="s" s="8">
+    <row r="12" ht="68.05" customHeight="1">
+      <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1677,7 +1677,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" ht="80.05" customHeight="1">
+    <row r="14" ht="116.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" ht="104.05" customHeight="1">
+    <row r="17" ht="68.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" ht="44.05" customHeight="1">
+    <row r="18" ht="104.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" ht="92.05" customHeight="1">
+    <row r="19" ht="44.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1773,12 +1773,12 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" ht="128.05" customHeight="1">
+    <row r="20" ht="92.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -1805,7 +1805,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" ht="188.05" customHeight="1">
+    <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1821,7 +1821,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" ht="116.05" customHeight="1">
+    <row r="23" ht="188.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" ht="128.05" customHeight="1">
+    <row r="24" ht="116.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" ht="116.05" customHeight="1">
+    <row r="25" ht="128.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" ht="68.05" customHeight="1">
+    <row r="26" ht="104.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -73,7 +73,7 @@
     <t>“It’s crazy that we met last night,” William said.</t>
   </si>
   <si>
-    <t xml:space="preserve">“I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without any local retailer prepared.” </t>
+    <t xml:space="preserve">“I am flying out right now to meet my boss, and was worried that I was going to show up empty handed without anything to show for the East Coast.” </t>
   </si>
   <si>
     <t>“I know, what are the chances, right?” Jeff replied.</t>
@@ -82,13 +82,13 @@
     <t>William laughed and said, “I’m glad our complaining can come in handy.”</t>
   </si>
   <si>
-    <t>William became more serious, shifting gears, and said,  “Ok, so, I know this is fast, but I'd like to get right down to business since time is a limiting factor.</t>
+    <t>William got focused and, shifting gears, said, “I know this is fast, but I'd like to get right down to business since time is a limiting factor.</t>
   </si>
   <si>
     <t xml:space="preserve">I'd really like to order a couple of sample shipments from you and present them to our clients: I think they’d really love to have some East Coast variety. </t>
   </si>
   <si>
-    <t>Now, typically we expect to get these kinds of samples at a deep discount, at least half-off the label price.</t>
+    <t>Now, typically we expect to get these kinds of samples at a steep discount, at least half-off the label price.</t>
   </si>
   <si>
     <t>This small loss is well worth the profit you’d be making if even a single client makes a contract.</t>
@@ -112,31 +112,31 @@
     <t>Jeff, weaving through the crowd of travelers, squinted at William's rosy projections of the number of bottles he would purchase in the future.</t>
   </si>
   <si>
-    <t xml:space="preserve">After thinking for a couple minutes and walking past a number of coffee shops that William was eyeing, Jeff said, “I don’t know, we’re not coming from corporate vineyards, so gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
-  </si>
-  <si>
-    <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at this price.”</t>
-  </si>
-  <si>
-    <t>William decided to tell Jeff that they had made the same offer to their competitor, East Vines, who had refused and that they would make a better offer to Jeff and his company.</t>
-  </si>
-  <si>
-    <t>They walked to the gates very slowly, barely registering the hubbub of the airport since they were so caught up in figuring out the numbers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William and Jeff came to an agreement on a compromise rate on the sample shipment, paying $400 for a $600 shipment, and they finalized the deal with a handshake. </t>
+    <t xml:space="preserve">After thinking for a couple minutes and walking past a number of coffee shops that William was eyeing, Jeff said, “I am not sure about this since we’re not coming a corporate vineyard and gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
+  </si>
+  <si>
+    <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at a price like you suggest.”</t>
+  </si>
+  <si>
+    <t>William decided to tell Jeff that they had made the same offer to their competitor, Yankee Vines, who had refused and that they would make a better offer to Jeff and his company.</t>
+  </si>
+  <si>
+    <t>They walked to the gates very slowly, barely registering the hubbub of the airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William and Jeff came to an agreement on a compromise rate on the sample shipment, paying $400 for a $600 shipment of wine sample, and they finalized the deal with a handshake. </t>
   </si>
   <si>
     <t>“Well, what a tremendous pleasure to do business with you and to have all this work out,” William said.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeff nodded enthusiastically, and responded, “Likewise, this has been great.  </t>
+    <t xml:space="preserve">Jeff nodded enthusiastically, and responded, “Likewise- this has been great.  </t>
   </si>
   <si>
     <t>I'll let you get to your gate.</t>
   </si>
   <si>
-    <t>Once we’re both back on the ground, we can get all the shipments in the books.”</t>
+    <t>Once we’re both back on the ground, we can work out all the official documentation and get this in the books.”</t>
   </si>
   <si>
     <t>Jeff jogged to his gate, scanned his boarding pass, and walked onto the plane.</t>
@@ -1613,7 +1613,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" ht="104.05" customHeight="1">
+    <row r="10" ht="116.05" customHeight="1">
       <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" ht="116.05" customHeight="1">
+    <row r="13" ht="92.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" ht="116.05" customHeight="1">
+    <row r="24" ht="128.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" ht="104.05" customHeight="1">
+    <row r="26" ht="68.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" ht="128.05" customHeight="1">
+    <row r="27" ht="140.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" ht="68.05" customHeight="1">
+    <row r="31" ht="104.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>

--- a/story_xlsx_files/32.xlsx
+++ b/story_xlsx_files/32.xlsx
@@ -61,7 +61,7 @@
     <t>Jeff had delivered some surprisingly-detailed complaints to William about the wine selection.</t>
   </si>
   <si>
-    <t>They quickly learned that they were both in the wine industry: Jeff was a sales associate for wine vineyards in the Northeast and William was a wine buyer for corporate events.</t>
+    <t>They quickly learned that they were both in the wine industry: Jeff was a sales associate for wine vineyards in the Northeast, and William was a wine buyer for corporate events.</t>
   </si>
   <si>
     <t xml:space="preserve">Since they both had flights out of Boston at the same time, they had agreed to meet at the airport and talk about doing business together. </t>
@@ -94,7 +94,7 @@
     <t>This small loss is well worth the profit you’d be making if even a single client makes a contract.</t>
   </si>
   <si>
-    <t>So I propose that you send us 5 barrels of your select wines for $800.”</t>
+    <t>So, I propose that you send us 5 crates of your select wines for $800.”</t>
   </si>
   <si>
     <t xml:space="preserve">Before going through the metal detector, there was a pause in the security line to roll out the empty bin cart and roll in a filled one. </t>
@@ -112,19 +112,19 @@
     <t>Jeff, weaving through the crowd of travelers, squinted at William's rosy projections of the number of bottles he would purchase in the future.</t>
   </si>
   <si>
-    <t xml:space="preserve">After thinking for a couple minutes and walking past a number of coffee shops that William was eyeing, Jeff said, “I am not sure about this since we’re not coming a corporate vineyard and gambling with sample shipments is the kind of risk we can’t necessarily make. </t>
-  </si>
-  <si>
-    <t>These corporate purchases would have to be huge and practically guaranteed, to offset the loss from selling sample shipments at a price like you suggest.”</t>
-  </si>
-  <si>
-    <t>William decided to tell Jeff that they had made the same offer to their competitor, Yankee Vines, who had refused and that they would make a better offer to Jeff and his company.</t>
+    <t xml:space="preserve">After thinking for a couple minutes, Jeff said, “I am not sure about this since we’re not coming from a corporate vineyard and gambling with sample shipments at this rate is the kind of risk we can’t necessarily make. </t>
+  </si>
+  <si>
+    <t>These corporate purchases would have to be huge and practically guaranteed to offset the loss from selling sample shipments at a price like you suggest.”</t>
+  </si>
+  <si>
+    <t>William told Jeff that they had made the same offer to their competitor, Yankee Vines, who had refused and that they would make a better offer to Jeff and his company.</t>
   </si>
   <si>
     <t>They walked to the gates very slowly, barely registering the hubbub of the airport.</t>
   </si>
   <si>
-    <t xml:space="preserve">William and Jeff came to an agreement on a compromise rate on the sample shipment, paying $400 for a $600 shipment of wine sample, and they finalized the deal with a handshake. </t>
+    <t xml:space="preserve">William and Jeff came to an agreement on a compromise rate on the sample shipment, paying $400 for a $600 shipment of wine samples, and they finalized the deal with a handshake. </t>
   </si>
   <si>
     <t>“Well, what a tremendous pleasure to do business with you and to have all this work out,” William said.</t>
@@ -142,7 +142,7 @@
     <t>Jeff jogged to his gate, scanned his boarding pass, and walked onto the plane.</t>
   </si>
   <si>
-    <t xml:space="preserve">He sat down in seat 4A in the business class section and  typed out a quick email on his phone letting the rest of his team know the good news. </t>
+    <t xml:space="preserve">He sat down in seat 4A in the business class section and typed out a quick email on his phone letting the rest of his team know the good news. </t>
   </si>
   <si>
     <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
@@ -1821,7 +1821,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" ht="188.05" customHeight="1">
+    <row r="23" ht="164.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
